--- a/biology/Botanique/Prasiola/Prasiola.xlsx
+++ b/biology/Botanique/Prasiola/Prasiola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prasiola est un genre d'algues vertes de la famille des Prasiolaceae (en). 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du grec πρασινοσ / prasinos, « d'un vert tendre comme le poireau » qui a donné le latin prasinatus, « habillé de vert », en référence à la couleur de l'algue.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des algues en forme de petites lames qui peuvent en groupe tapisser le substrat où elles sont accrochées. La lame est attachée au substrat par un petit stipe à plusieurs rangées de cellules. La lame est généralement à une seule épaisseur de cellules.
 </t>
@@ -573,9 +589,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les algues du genre Prasiola peuvent se reproduire par reproduction (gamètes) ou se multiplier par multiplication asexuée (spores ou fragmentation du thalle). Certaines espèces se multiplient exclusivement par voie asexuée, telles que Prasiola furfuracea (en) ou Prasiola calophylla (en)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les algues du genre Prasiola peuvent se reproduire par reproduction (gamètes) ou se multiplier par multiplication asexuée (spores ou fragmentation du thalle). Certaines espèces se multiplient exclusivement par voie asexuée, telles que Prasiola furfuracea (en) ou Prasiola calophylla (en).
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces algues d'eau douce, terrestres ou marines sont cosmopolites ; on peut les trouver sous des climats tempérés ou arctiques. Les espèces marines vivent dans la partie battue par les vagues de la zone de balancement des marées. Les espèces d'eau douce poussent dans les cours d’eau à courant assez rapide ; les espèces terrestres poussent sur sol ou rochers humides.
 </t>
@@ -635,7 +655,9 @@
           <t>Rôle écologique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles constituent la partie algale des mycophycobioses du genre Turgidosculum (anciennement Mastodia). Alors que les lichens sont constitués d'une lame de mycélium hébergeant des algues unicellulaires, les mycophycobioses sont constituées d'une algue pluricellulaire hébergeant un ascomycète.
 </t>
@@ -668,9 +690,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taxonomie
-Liste d'espèces
-Selon AlgaeBase                                           (17 juin 2013)[3] :
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (17 juin 2013) :
 Prasiola anziana Rabenhorst
 Prasiola borealis M.Reed
 Prasiola calophylla (Carmichael ex Greville) Kützing
@@ -707,7 +733,7 @@
 Prasiola velutina (Lyngbye) Trevisan
 Prasiola volcanica R.Luan &amp; L.Ding
 Prasiola yunnanica C.-C.Jao
-Selon ITIS      (17 juin 2013)[4] :
+Selon ITIS      (17 juin 2013) :
 Prasiola borealis
 Prasiola delicata
 Prasiola fluviatilis (Sommerf.) Aresch.
@@ -715,7 +741,7 @@
 Prasiola mexicana J. G. Agardh
 Prasiola stipitata
 Prasiola tesselata
-Selon World Register of Marine Species                               (17 juin 2013)[5] :
+Selon World Register of Marine Species                               (17 juin 2013) :
 Prasiola anziana Rabenhorst, 1864
 Prasiola borealis M.Reed, 1902
 Prasiola calophylla (Carmichael ex Greville) Kützing, 1845
